--- a/xlsx/马修·博尔顿_intext.xlsx
+++ b/xlsx/马修·博尔顿_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AD%A6%E4%BC%9A</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瑪麗·羅賓遜</t>
+    <t>玛丽·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BD%95</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E4%BA%9E%E7%95%B6</t>
   </si>
   <si>
-    <t>羅伯特·亞當</t>
+    <t>罗伯特·亚当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%93%A6%E7%89%B9</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>東印度公司</t>
+    <t>东印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%A4%A7%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>聖瑪麗大教堂</t>
+    <t>圣玛丽大教堂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lunar_Society</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
